--- a/resources/assets/document-templates/ja-JP/new.xlsx
+++ b/resources/assets/document-templates/ja-JP/new.xlsx
@@ -8,7 +8,7 @@
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{0EDA04EA-5C01-44B9-B686-9CA78402A020}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
